--- a/Schematics/Components/Utility_Watch_BOM.xlsx
+++ b/Schematics/Components/Utility_Watch_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Components</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>https://robu.in/product/ams1117-3-3-ldo-800ma-dc-5v-3-3v-step-power-supply-module/?gad_source=1&amp;gbraid=0AAAAADvLFWfHbZ1aIqX8F5rfsQEMRjSHD&amp;gclid=Cj0KCQiA0MG5BhD1ARIsAEcZtwS3ORxHgheERmEpQ0qI_KwIy-IoyfpDkc9ayZH5RthfsQ2KcUBHINIaArACEALw_wcB</t>
+  </si>
+  <si>
+    <t>Silicon Wire 28 AWG</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/28awg-silicone-wire/?gad_source=1&amp;gbraid=0AAAAADvLFWeTgUz2OswCMdNMzaCTK1-p6&amp;gclid=Cj0KCQiA0MG5BhD1ARIsAEcZtwSgADQGdqIlxXmjAwOsKxc6s8RNLS3OR_bDSHyxSt0lT3qwM3-qUt4aAvMaEALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -170,6 +176,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -570,7 +577,8 @@
         <v>48.0</v>
       </c>
       <c r="D10" s="3">
-        <v>48.0</v>
+        <f t="shared" ref="D10:D12" si="1">MULTIPLY(B10,C10)</f>
+        <v>96</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>22</v>
@@ -589,34 +597,53 @@
         <v>18.0</v>
       </c>
       <c r="D11" s="3">
-        <v>18.0</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
         <f>SUM(D2:D11)</f>
-        <v>1938</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+        <v>2004</v>
+      </c>
       <c r="E14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -630,7 +657,8 @@
     <hyperlink r:id="rId8" ref="E9"/>
     <hyperlink r:id="rId9" ref="E10"/>
     <hyperlink r:id="rId10" ref="E11"/>
+    <hyperlink r:id="rId11" ref="E12"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>